--- a/energies100AFH.xlsx
+++ b/energies100AFH.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/royelkabetz/Git/2D_TN/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CDCE70-418F-E940-9243-6531C177C2AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>E BP</t>
   </si>
@@ -30,12 +44,27 @@
   <si>
     <t>E gPEPS bmps</t>
   </si>
+  <si>
+    <t>D=2</t>
+  </si>
+  <si>
+    <t>D=3</t>
+  </si>
+  <si>
+    <t>D=4</t>
+  </si>
+  <si>
+    <t>Dp</t>
+  </si>
+  <si>
+    <t>1/Dp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -83,13 +112,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -98,6 +141,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -144,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,9 +227,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,6 +279,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -385,14 +472,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:AD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27:O34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -457,185 +546,416 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="1" t="s">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>-0.6022798148676669</v>
-      </c>
-      <c r="C2">
-        <v>-0.6043717666743516</v>
-      </c>
-      <c r="D2">
-        <v>-0.6054974691344738</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="1" t="s">
+      <c r="J16">
+        <v>-0.60227981486766691</v>
+      </c>
+      <c r="K16">
+        <v>-0.60437176667435155</v>
+      </c>
+      <c r="L16">
+        <v>-0.60549746913447378</v>
+      </c>
+    </row>
+    <row r="17" spans="9:30" x14ac:dyDescent="0.2">
+      <c r="I17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>-0.6031779357406044</v>
-      </c>
-      <c r="C3">
+      <c r="J17">
+        <v>-0.60317793574060441</v>
+      </c>
+      <c r="K17">
         <v>-0.6052766063629027</v>
       </c>
-      <c r="D3">
+      <c r="L17">
         <v>-0.6063931548083431</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="1" t="s">
+    <row r="18" spans="9:30" x14ac:dyDescent="0.2">
+      <c r="I18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>-0.6021275605970143</v>
-      </c>
-      <c r="C4">
-        <v>-0.6041905188712862</v>
-      </c>
-      <c r="D4">
+      <c r="J18">
+        <v>-0.60212756059701433</v>
+      </c>
+      <c r="K18">
+        <v>-0.60419051887128616</v>
+      </c>
+      <c r="L18">
         <v>-0.6053357221571134</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="1" t="s">
+    <row r="19" spans="9:30" x14ac:dyDescent="0.2">
+      <c r="I19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>-0.6031814965666968</v>
-      </c>
-      <c r="C5">
-        <v>-0.6078522689668421</v>
-      </c>
-      <c r="D5">
-        <v>-0.6127020464378262</v>
-      </c>
-      <c r="E5">
+      <c r="J19">
+        <v>-0.60318149656669684</v>
+      </c>
+      <c r="K19">
+        <v>-0.60785226896684208</v>
+      </c>
+      <c r="L19">
+        <v>-0.61270204643782622</v>
+      </c>
+      <c r="M19">
         <v>-0.6127965059102235</v>
       </c>
-      <c r="F5">
-        <v>-0.6127993231557837</v>
-      </c>
-      <c r="G5">
-        <v>-0.6127993603174045</v>
-      </c>
-      <c r="H5">
-        <v>-0.6127993607070076</v>
-      </c>
-      <c r="I5">
-        <v>-0.6052795131402186</v>
-      </c>
-      <c r="J5">
-        <v>-0.609298973700882</v>
-      </c>
-      <c r="K5">
-        <v>-0.6178930911851988</v>
-      </c>
-      <c r="L5">
-        <v>-0.6184172056509182</v>
-      </c>
-      <c r="M5">
-        <v>-0.6184502170983047</v>
-      </c>
-      <c r="N5">
-        <v>-0.6184597495849233</v>
-      </c>
-      <c r="O5">
-        <v>-0.6184623580865803</v>
-      </c>
-      <c r="P5">
-        <v>-0.606395131932937</v>
-      </c>
-      <c r="Q5">
+      <c r="N19">
+        <v>-0.61279932315578367</v>
+      </c>
+      <c r="O19">
+        <v>-0.61279936031740445</v>
+      </c>
+      <c r="P19">
+        <v>-0.61279936070700758</v>
+      </c>
+      <c r="Q19">
+        <v>-0.60527951314021855</v>
+      </c>
+      <c r="R19">
+        <v>-0.60929897370088204</v>
+      </c>
+      <c r="S19">
+        <v>-0.61789309118519875</v>
+      </c>
+      <c r="T19">
+        <v>-0.61841720565091818</v>
+      </c>
+      <c r="U19">
+        <v>-0.61845021709830472</v>
+      </c>
+      <c r="V19">
+        <v>-0.61845974958492334</v>
+      </c>
+      <c r="W19">
+        <v>-0.61846235808658034</v>
+      </c>
+      <c r="X19">
+        <v>-0.60639513193293704</v>
+      </c>
+      <c r="Y19">
         <v>-0.6104034575375803</v>
       </c>
-      <c r="R5">
-        <v>-0.6193108444572831</v>
-      </c>
-      <c r="S5">
-        <v>-0.6230475123958866</v>
-      </c>
-      <c r="T5">
-        <v>-0.6236900309415269</v>
-      </c>
-      <c r="U5">
-        <v>-0.6237854018662771</v>
-      </c>
-      <c r="V5">
-        <v>-0.6238109718674286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="1" t="s">
+      <c r="Z19">
+        <v>-0.61931084445728313</v>
+      </c>
+      <c r="AA19">
+        <v>-0.62304751239588663</v>
+      </c>
+      <c r="AB19">
+        <v>-0.62369003094152686</v>
+      </c>
+      <c r="AC19">
+        <v>-0.62378540186627707</v>
+      </c>
+      <c r="AD19">
+        <v>-0.62381097186742862</v>
+      </c>
+    </row>
+    <row r="20" spans="9:30" x14ac:dyDescent="0.2">
+      <c r="I20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>-0.6030296248682712</v>
-      </c>
-      <c r="C6">
+      <c r="J20">
+        <v>-0.60302962486827116</v>
+      </c>
+      <c r="K20">
         <v>-0.6078232853668688</v>
       </c>
-      <c r="D6">
-        <v>-0.612799979999504</v>
-      </c>
-      <c r="E6">
-        <v>-0.6129026579596636</v>
-      </c>
-      <c r="F6">
-        <v>-0.6129056065916381</v>
-      </c>
-      <c r="G6">
-        <v>-0.6129056444147158</v>
-      </c>
-      <c r="H6">
-        <v>-0.6129056448657402</v>
-      </c>
-      <c r="I6">
-        <v>-0.6050844381234576</v>
-      </c>
-      <c r="J6">
-        <v>-0.6091212795769723</v>
-      </c>
-      <c r="K6">
-        <v>-0.6177041011311762</v>
-      </c>
-      <c r="L6">
-        <v>-0.6182320453149283</v>
-      </c>
-      <c r="M6">
-        <v>-0.6182666585088025</v>
-      </c>
-      <c r="N6">
-        <v>-0.6182763881653376</v>
-      </c>
-      <c r="O6">
-        <v>-0.6182789188887862</v>
-      </c>
-      <c r="P6">
-        <v>-0.606217750123363</v>
-      </c>
-      <c r="Q6">
-        <v>-0.6102201075500079</v>
-      </c>
-      <c r="R6">
-        <v>-0.6191404820907581</v>
-      </c>
-      <c r="S6">
-        <v>-0.6228736733553302</v>
-      </c>
-      <c r="T6">
-        <v>-0.6235483733704628</v>
-      </c>
-      <c r="U6">
-        <v>-0.623636661302822</v>
-      </c>
-      <c r="V6">
-        <v>-0.6236615008540636</v>
+      <c r="L20">
+        <v>-0.61279997999950397</v>
+      </c>
+      <c r="M20">
+        <v>-0.61290265795966359</v>
+      </c>
+      <c r="N20">
+        <v>-0.61290560659163806</v>
+      </c>
+      <c r="O20">
+        <v>-0.61290564441471584</v>
+      </c>
+      <c r="P20">
+        <v>-0.61290564486574017</v>
+      </c>
+      <c r="Q20">
+        <v>-0.60508443812345758</v>
+      </c>
+      <c r="R20">
+        <v>-0.60912127957697226</v>
+      </c>
+      <c r="S20">
+        <v>-0.61770410113117624</v>
+      </c>
+      <c r="T20">
+        <v>-0.61823204531492826</v>
+      </c>
+      <c r="U20">
+        <v>-0.61826665850880247</v>
+      </c>
+      <c r="V20">
+        <v>-0.61827638816533759</v>
+      </c>
+      <c r="W20">
+        <v>-0.61827891888878617</v>
+      </c>
+      <c r="X20">
+        <v>-0.60621775012336299</v>
+      </c>
+      <c r="Y20">
+        <v>-0.61022010755000788</v>
+      </c>
+      <c r="Z20">
+        <v>-0.61914048209075812</v>
+      </c>
+      <c r="AA20">
+        <v>-0.62287367335533017</v>
+      </c>
+      <c r="AB20">
+        <v>-0.62354837337046276</v>
+      </c>
+      <c r="AC20">
+        <v>-0.62363666130282203</v>
+      </c>
+      <c r="AD20">
+        <v>-0.62366150085406358</v>
+      </c>
+    </row>
+    <row r="21" spans="9:30" x14ac:dyDescent="0.2">
+      <c r="I21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <f>8</f>
+        <v>8</v>
+      </c>
+      <c r="N21">
+        <f>16</f>
+        <v>16</v>
+      </c>
+      <c r="O21">
+        <f>32</f>
+        <v>32</v>
+      </c>
+      <c r="P21">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="Q21">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="T21">
+        <f>8</f>
+        <v>8</v>
+      </c>
+      <c r="U21">
+        <f>16</f>
+        <v>16</v>
+      </c>
+      <c r="V21">
+        <f>32</f>
+        <v>32</v>
+      </c>
+      <c r="W21">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="X21">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="Z21">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="AA21">
+        <f>8</f>
+        <v>8</v>
+      </c>
+      <c r="AB21">
+        <f>16</f>
+        <v>16</v>
+      </c>
+      <c r="AC21">
+        <f>32</f>
+        <v>32</v>
+      </c>
+      <c r="AD21">
+        <f>100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="9:30" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>6</v>
+      </c>
+      <c r="X22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="9:30" x14ac:dyDescent="0.2">
+      <c r="L27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>6</v>
+      </c>
+      <c r="O27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="9:30" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>-0.60302962486827116</v>
+      </c>
+      <c r="N28">
+        <v>-0.60508443812345758</v>
+      </c>
+      <c r="O28">
+        <v>-0.60621775012336299</v>
+      </c>
+    </row>
+    <row r="29" spans="9:30" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="M29">
+        <v>-0.6078232853668688</v>
+      </c>
+      <c r="N29">
+        <v>-0.60912127957697226</v>
+      </c>
+      <c r="O29">
+        <v>-0.61022010755000788</v>
+      </c>
+    </row>
+    <row r="30" spans="9:30" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="M30">
+        <v>-0.61279997999950397</v>
+      </c>
+      <c r="N30">
+        <v>-0.61770410113117624</v>
+      </c>
+      <c r="O30">
+        <v>-0.61914048209075812</v>
+      </c>
+    </row>
+    <row r="31" spans="9:30" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="M31">
+        <v>-0.61290265795966359</v>
+      </c>
+      <c r="N31">
+        <v>-0.61823204531492826</v>
+      </c>
+      <c r="O31">
+        <v>-0.62287367335533017</v>
+      </c>
+    </row>
+    <row r="32" spans="9:30" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <f>1/16</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M32">
+        <v>-0.61290560659163806</v>
+      </c>
+      <c r="N32">
+        <v>-0.61826665850880247</v>
+      </c>
+      <c r="O32">
+        <v>-0.62354837337046276</v>
+      </c>
+    </row>
+    <row r="33" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <f>1/32</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="M33">
+        <v>-0.61290564441471584</v>
+      </c>
+      <c r="N33">
+        <v>-0.61827638816533759</v>
+      </c>
+      <c r="O33">
+        <v>-0.62363666130282203</v>
+      </c>
+    </row>
+    <row r="34" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <f>1/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="M34">
+        <v>-0.61290564486574017</v>
+      </c>
+      <c r="N34">
+        <v>-0.61827891888878617</v>
+      </c>
+      <c r="O34">
+        <v>-0.62366150085406358</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>